--- a/Selection_Problem_Results.xlsx
+++ b/Selection_Problem_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhitt\Desktop\Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC801466-0570-4137-96FE-A3559584083B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202515D-8BCE-4663-9F9B-4364B86577B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7DF33190-DBD9-4EE9-8048-E610A3583F07}"/>
   </bookViews>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
-  <si>
-    <t>kth_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
   <si>
     <t>n/4</t>
   </si>
@@ -47,12 +44,6 @@
   </si>
   <si>
     <t>k=1</t>
-  </si>
-  <si>
-    <t>kth_3</t>
-  </si>
-  <si>
-    <t>kth_1</t>
   </si>
   <si>
     <t>nanoseconds</t>
@@ -88,10 +79,22 @@
     <t>Select_kth_4</t>
   </si>
   <si>
-    <t>kth_4</t>
+    <t>Time to compute n</t>
   </si>
   <si>
-    <t>Time to compute n</t>
+    <t>Select_1</t>
+  </si>
+  <si>
+    <t>Select_2</t>
+  </si>
+  <si>
+    <t>Select_3</t>
+  </si>
+  <si>
+    <t>Select_4</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -186,12 +195,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparison</a:t>
+              <a:t>Comparison of Selection</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of implementations</a:t>
+              <a:t> Strategies</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -228,7 +238,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -254,19 +264,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -324,7 +322,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59F5-4395-BF1C-CBB6E30EA15C}"/>
+              <c16:uniqueId val="{00000000-F343-4610-9067-7B31A1DF7B99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -352,19 +350,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -422,7 +408,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-59F5-4395-BF1C-CBB6E30EA15C}"/>
+              <c16:uniqueId val="{00000001-F343-4610-9067-7B31A1DF7B99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -450,19 +436,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -520,7 +494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-59F5-4395-BF1C-CBB6E30EA15C}"/>
+              <c16:uniqueId val="{00000002-F343-4610-9067-7B31A1DF7B99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -548,19 +522,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -618,7 +580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-59F5-4395-BF1C-CBB6E30EA15C}"/>
+              <c16:uniqueId val="{00000003-F343-4610-9067-7B31A1DF7B99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,13 +592,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511879672"/>
-        <c:axId val="511877376"/>
+        <c:axId val="509837568"/>
+        <c:axId val="509837240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="511879672"/>
+        <c:axId val="509837568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511877376"/>
+        <c:crossAx val="509837240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511877376"/>
+        <c:axId val="509837240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511879672"/>
+        <c:crossAx val="509837568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -782,7 +743,896 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Select 2 vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Select 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Select_kth_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$L$4:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$L$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>324323.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329898.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337294.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362382.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>399928.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9435-48B2-B2A5-09EBBBA08986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Select_kth_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$L$4:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$L$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>290190.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295310.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297187.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302990.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317610.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335416.90000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9435-48B2-B2A5-09EBBBA08986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594462544"/>
+        <c:axId val="594466480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594462544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594466480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594466480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594462544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Select 4 vs Select 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Select_kth_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$L$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$L$28:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>326656.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>335075.90000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>363804.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>457216.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>646940.69999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>948167.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0CA-4956-9A1B-23D162A1DCAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Select_kth_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$L$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$L$29:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>524003.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>544142.30000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>590961.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2028146.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2139307.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2449238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0CA-4956-9A1B-23D162A1DCAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="590901952"/>
+        <c:axId val="590902280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590901952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590902280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590902280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590901952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -858,8 +1708,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -967,6 +1897,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -977,6 +1912,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1008,6 +1948,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1361,27 +2304,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DDA0A0-D303-43EB-9728-BDE625B8A010}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C9D610-AA0A-4F2A-825C-3D063275FA46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,11 +3374,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B867E53C-2367-4203-9727-3A6B7010ADA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252D1E54-FB6A-40BA-A8EB-4898C698018D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{178AE834-66A8-443B-BC95-952ECE560E6D}" name="Table10" displayName="Table10" ref="B4:H8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{178AE834-66A8-443B-BC95-952ECE560E6D}" name="Table10" displayName="Table10" ref="B4:H8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B4:H8" xr:uid="{DCB16F54-B388-4DDB-8F95-E22B59F4334E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5DCD5E08-153E-4D08-8550-A3D10F9E025A}" name="Time to compute n"/>
@@ -1418,7 +3465,83 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9B85D7E-0941-4989-A667-C9FB15D8D26D}" name="Table8" displayName="Table8" ref="A2:G12" totalsRowShown="0">
+  <autoFilter ref="A2:G12" xr:uid="{C79C5C86-9003-49C2-9500-CDA3298FF5CB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{29D2BB65-3978-4C44-80A8-9C8554D971F9}" name="Select_4"/>
+    <tableColumn id="2" xr3:uid="{9CFA0ED1-2FC8-447A-99CF-56D9DEC98801}" name="10"/>
+    <tableColumn id="3" xr3:uid="{00E8443C-2997-4A60-BDC7-85D5E489A8A8}" name="50"/>
+    <tableColumn id="4" xr3:uid="{F693CAA4-5060-4D0A-97FA-EA2F5181E281}" name="100"/>
+    <tableColumn id="5" xr3:uid="{05D6795D-0E05-443B-B44C-F96B8E0B13A7}" name="250"/>
+    <tableColumn id="6" xr3:uid="{A73FA9BB-FF93-4BDF-A51A-589D80EA5B03}" name="500"/>
+    <tableColumn id="7" xr3:uid="{4960331C-81F2-4C35-AA93-76F38D4DF3B9}" name="1000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91766BB6-5C53-4189-A4C5-FA7CF6BA545A}" name="Table9" displayName="Table9" ref="B14:H15" totalsRowShown="0">
+  <autoFilter ref="B14:H15" xr:uid="{D452F554-50F4-4122-A44D-F468934730C4}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{340C3BF7-8D86-4519-A074-88B0C665AEA4}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{F215B023-5C5E-42F2-B59B-B69CADC90406}" name="10">
+      <calculatedColumnFormula>SUM(B3:B12)/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{DA901DC0-2159-4F0B-9FD1-AE06AD2CF476}" name="50">
+      <calculatedColumnFormula>SUM(C3:C12)/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{28CC611E-29CA-4E4A-A75B-B04F0F374CB7}" name="100">
+      <calculatedColumnFormula>SUM(D3:D12)/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DA073CC2-5141-4749-9F7B-407679E6CD31}" name="250">
+      <calculatedColumnFormula>SUM(E3:E12)/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7DA50588-7897-456D-89B3-9A421B796CEC}" name="500">
+      <calculatedColumnFormula>SUM(F3:F12)/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{ACC46353-DF95-44A5-A10D-5AB249DD570E}" name="1000">
+      <calculatedColumnFormula>SUM(G3:G12)/10</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17DA6A81-B245-43B4-86BA-D15D5A413694}" name="Table2" displayName="Table2" ref="K4:Q6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="K4:Q6" xr:uid="{25BE6594-66EF-4BAF-B646-4346DA25D28E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AC1087EF-C744-437D-9680-418BEB6917C6}" name="Time to compute n"/>
+    <tableColumn id="2" xr3:uid="{36A7FE6B-C489-458D-A650-51D113B52C9B}" name="10"/>
+    <tableColumn id="3" xr3:uid="{1A55B0CC-0E79-43AA-9A08-6B8C7312DDF2}" name="50"/>
+    <tableColumn id="4" xr3:uid="{0C6F38A1-D90D-4690-8DA2-67F4A0202D63}" name="100"/>
+    <tableColumn id="5" xr3:uid="{2E72C2C7-B8E4-44C0-A0F6-A539C58FCBEB}" name="250"/>
+    <tableColumn id="6" xr3:uid="{BA85E334-60BA-47ED-A1F7-B55C8E487DB2}" name="500"/>
+    <tableColumn id="7" xr3:uid="{AE2D9F1F-9127-4A20-8907-B72BC0493D60}" name="1000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0A4F0515-08D4-448E-94E3-1014D70EDCE7}" name="Table11" displayName="Table11" ref="K27:Q29" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="K27:Q29" xr:uid="{62F2613A-D1F6-4EBB-8EEC-C22D85176A33}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BF0656F5-45BA-449F-B20D-EEA056207F4F}" name="Time to compute n"/>
+    <tableColumn id="2" xr3:uid="{9AE0EAB4-000F-43CD-B294-608077F7138E}" name="10"/>
+    <tableColumn id="3" xr3:uid="{F1244585-4AC7-4848-97AC-8C6C69BF5153}" name="50"/>
+    <tableColumn id="4" xr3:uid="{B91B87EE-BB93-4101-8DB1-0E042482622B}" name="100"/>
+    <tableColumn id="5" xr3:uid="{FCDFD1C7-2C07-4377-80E4-4C068B37DBF8}" name="250"/>
+    <tableColumn id="6" xr3:uid="{DDA6387E-AAB0-475F-A70D-270968A904AB}" name="500"/>
+    <tableColumn id="7" xr3:uid="{A979C4AE-3A7D-40EC-999E-60424578E575}" name="1000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E265916E-9835-425D-AC71-5D1D4CFF0EF4}" name="Table1" displayName="Table1" ref="A14:G15" totalsRowShown="0">
   <autoFilter ref="A14:G15" xr:uid="{AE0A10E6-2508-4414-A8A5-28C15CEF4315}"/>
   <tableColumns count="7">
@@ -1446,11 +3569,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A60DC3EC-5F3F-4594-9D64-0AA6C29C7268}" name="Table3" displayName="Table3" ref="A2:G12" totalsRowShown="0">
   <autoFilter ref="A2:G12" xr:uid="{3C19BE7D-02C8-4384-BFB2-02D85E9A8EE9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{582A279E-CD5B-4935-833B-6FBD32744C5C}" name="kth_1"/>
+    <tableColumn id="1" xr3:uid="{582A279E-CD5B-4935-833B-6FBD32744C5C}" name="Select_1"/>
     <tableColumn id="2" xr3:uid="{6BC7279E-5CEC-4C90-BC42-F90D9C8FD115}" name="10"/>
     <tableColumn id="3" xr3:uid="{9E96E0F5-BFAC-4ACB-BECD-C479BD9CE43C}" name="50"/>
     <tableColumn id="4" xr3:uid="{DE93B79D-384B-4516-AA25-4B9408BA4BA5}" name="100"/>
@@ -1462,11 +3585,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B7215FCB-88B2-4D20-B4D2-8BC12BC04DA7}" name="Table4" displayName="Table4" ref="A2:G12" totalsRowShown="0">
   <autoFilter ref="A2:G12" xr:uid="{89C96A7D-0E2D-4B2A-A87B-9DE7DE7DDFC5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C1B1E26F-0D89-4B72-8B77-476E361509D9}" name="kth_2"/>
+    <tableColumn id="1" xr3:uid="{C1B1E26F-0D89-4B72-8B77-476E361509D9}" name="Select_2"/>
     <tableColumn id="2" xr3:uid="{6A9FB2FA-E696-4903-B1AB-09BAD97C03D8}" name="10"/>
     <tableColumn id="3" xr3:uid="{DB75E41F-5CD9-48A7-B781-85723397CAE5}" name="50"/>
     <tableColumn id="4" xr3:uid="{D9D0BB8C-2D1D-479A-80FD-0AE8BF6EF7C8}" name="100"/>
@@ -1478,10 +3601,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{196A9A3A-EF3B-46C3-AC8F-51E718273C32}" name="Table5" displayName="Table5" ref="B16:G17" totalsRowShown="0">
-  <autoFilter ref="B16:G17" xr:uid="{38B31A1D-4C1A-412D-B291-5F7467A71510}"/>
-  <tableColumns count="6">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{196A9A3A-EF3B-46C3-AC8F-51E718273C32}" name="Table5" displayName="Table5" ref="B16:H17" totalsRowShown="0">
+  <autoFilter ref="B16:H17" xr:uid="{38B31A1D-4C1A-412D-B291-5F7467A71510}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{EB1C3813-7C11-4666-B92C-BBB86A271C9B}" name="Column1"/>
     <tableColumn id="1" xr3:uid="{AB3DA85E-6442-4272-9216-77178A99766E}" name="10">
       <calculatedColumnFormula>SUM(B3:B12)/10</calculatedColumnFormula>
     </tableColumn>
@@ -1505,11 +3629,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F9132A46-F5FF-4D78-851D-27608E522FE4}" name="Table6" displayName="Table6" ref="A2:G12" totalsRowShown="0">
   <autoFilter ref="A2:G12" xr:uid="{A4D63F1C-6C41-49EE-B88F-34F30CBAEE21}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D29EC71A-73AE-43BF-8BC0-8740EA9F12F6}" name="kth_3"/>
+    <tableColumn id="1" xr3:uid="{D29EC71A-73AE-43BF-8BC0-8740EA9F12F6}" name="Select_3"/>
     <tableColumn id="2" xr3:uid="{7D03FC4B-0816-4140-BF96-F6C6EB94CE1D}" name="10"/>
     <tableColumn id="3" xr3:uid="{A55C8947-23A0-4ECC-9EB3-092770238ED9}" name="50"/>
     <tableColumn id="4" xr3:uid="{6ECE298E-7B90-422E-AF22-8A09B0B51BFD}" name="100"/>
@@ -1521,10 +3645,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E4DED7BD-6188-4EDF-8614-9188E47E9250}" name="Table7" displayName="Table7" ref="B14:G15" totalsRowShown="0">
-  <autoFilter ref="B14:G15" xr:uid="{1200A241-7F9A-432D-899C-45CC2E3CB4AD}"/>
-  <tableColumns count="6">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E4DED7BD-6188-4EDF-8614-9188E47E9250}" name="Table7" displayName="Table7" ref="B14:H15" totalsRowShown="0">
+  <autoFilter ref="B14:H15" xr:uid="{1200A241-7F9A-432D-899C-45CC2E3CB4AD}"/>
+  <tableColumns count="7">
+    <tableColumn id="13" xr3:uid="{9865BEBA-7EDD-4269-A0DC-73972677AF81}" name="Column1"/>
     <tableColumn id="1" xr3:uid="{C9FF386A-969C-47FC-AD10-89073907E172}" name="10">
       <calculatedColumnFormula>SUM(B3:B12)/10</calculatedColumnFormula>
     </tableColumn>
@@ -1545,49 +3670,6 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9B85D7E-0941-4989-A667-C9FB15D8D26D}" name="Table8" displayName="Table8" ref="A2:G12" totalsRowShown="0">
-  <autoFilter ref="A2:G12" xr:uid="{C79C5C86-9003-49C2-9500-CDA3298FF5CB}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{29D2BB65-3978-4C44-80A8-9C8554D971F9}" name="kth_4"/>
-    <tableColumn id="2" xr3:uid="{9CFA0ED1-2FC8-447A-99CF-56D9DEC98801}" name="10"/>
-    <tableColumn id="3" xr3:uid="{00E8443C-2997-4A60-BDC7-85D5E489A8A8}" name="50"/>
-    <tableColumn id="4" xr3:uid="{F693CAA4-5060-4D0A-97FA-EA2F5181E281}" name="100"/>
-    <tableColumn id="5" xr3:uid="{05D6795D-0E05-443B-B44C-F96B8E0B13A7}" name="250"/>
-    <tableColumn id="6" xr3:uid="{A73FA9BB-FF93-4BDF-A51A-589D80EA5B03}" name="500"/>
-    <tableColumn id="7" xr3:uid="{4960331C-81F2-4C35-AA93-76F38D4DF3B9}" name="1000"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91766BB6-5C53-4189-A4C5-FA7CF6BA545A}" name="Table9" displayName="Table9" ref="B14:G15" totalsRowShown="0">
-  <autoFilter ref="B14:G15" xr:uid="{D452F554-50F4-4122-A44D-F468934730C4}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F215B023-5C5E-42F2-B59B-B69CADC90406}" name="10">
-      <calculatedColumnFormula>SUM(B3:B12)/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{DA901DC0-2159-4F0B-9FD1-AE06AD2CF476}" name="50">
-      <calculatedColumnFormula>SUM(C3:C12)/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{28CC611E-29CA-4E4A-A75B-B04F0F374CB7}" name="100">
-      <calculatedColumnFormula>SUM(D3:D12)/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{DA073CC2-5141-4749-9F7B-407679E6CD31}" name="250">
-      <calculatedColumnFormula>SUM(E3:E12)/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{7DA50588-7897-456D-89B3-9A421B796CEC}" name="500">
-      <calculatedColumnFormula>SUM(F3:F12)/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{ACC46353-DF95-44A5-A10D-5AB249DD570E}" name="1000">
-      <calculatedColumnFormula>SUM(G3:G12)/10</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1888,43 +3970,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE652026-5E37-4F84-B47D-93635EF5B1E1}">
-  <dimension ref="B4:H8"/>
+  <dimension ref="B4:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5">
         <v>326656.40000000002</v>
@@ -1944,10 +4048,31 @@
       <c r="H5">
         <v>948167.6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>324323.5</v>
+      </c>
+      <c r="M5">
+        <v>327225</v>
+      </c>
+      <c r="N5">
+        <v>329898.8</v>
+      </c>
+      <c r="O5">
+        <v>337294.2</v>
+      </c>
+      <c r="P5">
+        <v>362382.4</v>
+      </c>
+      <c r="Q5">
+        <v>399928.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>324323.5</v>
@@ -1967,10 +4092,31 @@
       <c r="H6">
         <v>399928.8</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>290190.2</v>
+      </c>
+      <c r="M6">
+        <v>295310.40000000002</v>
+      </c>
+      <c r="N6">
+        <v>297187.8</v>
+      </c>
+      <c r="O6">
+        <v>302990.2</v>
+      </c>
+      <c r="P6">
+        <v>317610.59999999998</v>
+      </c>
+      <c r="Q6">
+        <v>335416.90000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>290190.2</v>
@@ -1991,9 +4137,9 @@
         <v>335416.90000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>524003.7</v>
@@ -2011,14 +4157,85 @@
         <v>2139307.5</v>
       </c>
       <c r="H8">
+        <v>2449238</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>326656.40000000002</v>
+      </c>
+      <c r="M28">
+        <v>335075.90000000002</v>
+      </c>
+      <c r="N28">
+        <v>363804.5</v>
+      </c>
+      <c r="O28">
+        <v>457216.3</v>
+      </c>
+      <c r="P28">
+        <v>646940.69999999995</v>
+      </c>
+      <c r="Q28">
+        <v>948167.6</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <v>524003.7</v>
+      </c>
+      <c r="M29">
+        <v>544142.30000000005</v>
+      </c>
+      <c r="N29">
+        <v>590961.9</v>
+      </c>
+      <c r="O29">
+        <v>2028146.2</v>
+      </c>
+      <c r="P29">
+        <v>2139307.5</v>
+      </c>
+      <c r="Q29">
         <v>2449238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2028,37 +4245,40 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A14" sqref="A14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>337352</v>
@@ -2101,7 +4321,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>314026</v>
@@ -2144,7 +4364,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>316303</v>
@@ -2187,7 +4407,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>316303</v>
@@ -2230,7 +4450,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>311752</v>
@@ -2273,53 +4493,53 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <f>SUM(B3:B12)/10</f>
+        <f t="shared" ref="B15:G15" si="0">SUM(B3:B12)/10</f>
         <v>326656.40000000002</v>
       </c>
       <c r="C15">
-        <f>SUM(C3:C12)/10</f>
+        <f t="shared" si="0"/>
         <v>335075.90000000002</v>
       </c>
       <c r="D15">
-        <f>SUM(D3:D12)/10</f>
+        <f t="shared" si="0"/>
         <v>363804.5</v>
       </c>
       <c r="E15">
-        <f>SUM(E3:E12)/10</f>
+        <f t="shared" si="0"/>
         <v>457216.3</v>
       </c>
       <c r="F15">
-        <f>SUM(F3:F12)/10</f>
+        <f t="shared" si="0"/>
         <v>646940.69999999995</v>
       </c>
       <c r="G15">
-        <f>SUM(G3:G12)/10</f>
+        <f t="shared" si="0"/>
         <v>948167.6</v>
       </c>
     </row>
@@ -2334,40 +4554,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2A341D-FBCB-4B57-8B6E-7B4613C0578E}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B16" sqref="B16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>329956</v>
@@ -2388,7 +4611,7 @@
         <v>367503</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>319715</v>
       </c>
@@ -2408,9 +4631,9 @@
         <v>373191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>315733</v>
@@ -2431,7 +4654,7 @@
         <v>397653</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>317439</v>
       </c>
@@ -2451,9 +4674,9 @@
         <v>391395</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>320854</v>
@@ -2474,7 +4697,7 @@
         <v>403911</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>351573</v>
       </c>
@@ -2494,9 +4717,9 @@
         <v>440320</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>315733</v>
@@ -2517,7 +4740,7 @@
         <v>417564</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>324835</v>
       </c>
@@ -2537,9 +4760,9 @@
         <v>420409</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>327112</v>
@@ -2560,7 +4783,7 @@
         <v>392533</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>320285</v>
       </c>
@@ -2580,49 +4803,52 @@
         <v>394809</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>SUM(B3:B12)/10</f>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" ref="C17:H17" si="0">SUM(B3:B12)/10</f>
         <v>324323.5</v>
       </c>
-      <c r="C17">
-        <f>SUM(C3:C12)/10</f>
+      <c r="D17">
+        <f t="shared" si="0"/>
         <v>327225</v>
       </c>
-      <c r="D17">
-        <f>SUM(D3:D12)/10</f>
+      <c r="E17">
+        <f t="shared" si="0"/>
         <v>329898.8</v>
       </c>
-      <c r="E17">
-        <f>SUM(E3:E12)/10</f>
+      <c r="F17">
+        <f t="shared" si="0"/>
         <v>337294.2</v>
       </c>
-      <c r="F17">
-        <f>SUM(F3:F12)/10</f>
+      <c r="G17">
+        <f t="shared" si="0"/>
         <v>362382.4</v>
       </c>
-      <c r="G17">
-        <f>SUM(G3:G12)/10</f>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>399928.8</v>
       </c>
     </row>
@@ -2638,40 +4864,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997F9B3-F228-4CE0-9B46-AF9E4B946625}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B14" sqref="B14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>288995</v>
@@ -2692,7 +4921,7 @@
         <v>309476</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>286151</v>
       </c>
@@ -2712,9 +4941,9 @@
         <v>310613</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>287858</v>
@@ -2735,7 +4964,7 @@
         <v>341334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>290702</v>
       </c>
@@ -2755,9 +4984,9 @@
         <v>348729</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>294115</v>
@@ -2778,7 +5007,7 @@
         <v>340195</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>290133</v>
       </c>
@@ -2798,9 +5027,9 @@
         <v>343040</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>287858</v>
@@ -2821,7 +5050,7 @@
         <v>338489</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>291271</v>
       </c>
@@ -2841,9 +5070,9 @@
         <v>332231</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>290703</v>
@@ -2864,7 +5093,7 @@
         <v>343609</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>294116</v>
       </c>
@@ -2884,49 +5113,52 @@
         <v>346453</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>SUM(B3:B12)/10</f>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" ref="C15:H15" si="0">SUM(B3:B12)/10</f>
         <v>290190.2</v>
       </c>
-      <c r="C15">
-        <f>SUM(C3:C12)/10</f>
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>295310.40000000002</v>
       </c>
-      <c r="D15">
-        <f>SUM(D3:D12)/10</f>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>297187.8</v>
       </c>
-      <c r="E15">
-        <f>SUM(E3:E12)/10</f>
+      <c r="F15">
+        <f t="shared" si="0"/>
         <v>302990.2</v>
       </c>
-      <c r="F15">
-        <f>SUM(F3:F12)/10</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>317610.59999999998</v>
       </c>
-      <c r="G15">
-        <f>SUM(G3:G12)/10</f>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>335416.90000000002</v>
       </c>
     </row>
@@ -2942,40 +5174,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF97A2A0-9759-49B0-AC43-E23324732E50}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>516551</v>
@@ -2996,7 +5231,7 @@
         <v>2418347</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>515982</v>
       </c>
@@ -3016,9 +5251,9 @@
         <v>2417778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>512569</v>
@@ -3039,7 +5274,7 @@
         <v>2773904</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>505174</v>
       </c>
@@ -3059,9 +5294,9 @@
         <v>2412089</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>518827</v>
@@ -3082,7 +5317,7 @@
         <v>2424605</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>519965</v>
       </c>
@@ -3102,9 +5337,9 @@
         <v>2486045</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>582542</v>
@@ -3125,7 +5360,7 @@
         <v>2405263</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>521671</v>
       </c>
@@ -3145,9 +5380,9 @@
         <v>2392748</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>512000</v>
@@ -3168,7 +5403,7 @@
         <v>2381938</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>534756</v>
       </c>
@@ -3188,49 +5423,52 @@
         <v>2379663</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>SUM(B3:B12)/10</f>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" ref="C15:H15" si="0">SUM(B3:B12)/10</f>
         <v>524003.7</v>
       </c>
-      <c r="C15">
-        <f>SUM(C3:C12)/10</f>
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>544142.30000000005</v>
       </c>
-      <c r="D15">
-        <f>SUM(D3:D12)/10</f>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>590961.9</v>
       </c>
-      <c r="E15">
-        <f>SUM(E3:E12)/10</f>
+      <c r="F15">
+        <f t="shared" si="0"/>
         <v>2028146.2</v>
       </c>
-      <c r="F15">
-        <f>SUM(F3:F12)/10</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>2139307.5</v>
       </c>
-      <c r="G15">
-        <f>SUM(G3:G12)/10</f>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>2449238</v>
       </c>
     </row>
